--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951253.6249559638</v>
+        <v>-953923.6205109246</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377153</v>
+        <v>9823063.766377142</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739791</v>
+        <v>369.0685238739795</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815061</v>
+        <v>351.6075739815064</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311815</v>
+        <v>341.0177238311819</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827603</v>
+        <v>368.2650522827607</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522099</v>
+        <v>393.2107279522103</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.2564078639523</v>
       </c>
       <c r="H11" t="n">
-        <v>280.942446597819</v>
+        <v>0.3483838421119003</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694005</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>156.4224616808419</v>
+        <v>314.0869406806338</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>335.5756509279119</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889675</v>
+        <v>356.0657828889679</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.1666623924358</v>
+        <v>166.1666623924362</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091264</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.9501552287112</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56.51981057168855</v>
       </c>
       <c r="G13" t="n">
-        <v>120.5755651116164</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248193</v>
+        <v>131.0896971248197</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.687102620337</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419404</v>
+        <v>176.1037075419408</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866677</v>
+        <v>205.8836314866681</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161114</v>
+        <v>272.5465204161118</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343265</v>
+        <v>238.4723255343269</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470895</v>
+        <v>272.8576805470899</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995357</v>
+        <v>212.044337599536</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739791</v>
+        <v>369.0685238739795</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815061</v>
+        <v>351.6075739815064</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311815</v>
+        <v>341.0177238311819</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827603</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522099</v>
+        <v>393.2107279522103</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.2564078639523</v>
       </c>
       <c r="H14" t="n">
-        <v>36.84088155456879</v>
+        <v>280.9424465978194</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342448</v>
+        <v>27.91161198342486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867436</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.252652350119</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694005</v>
+        <v>225.5725080824781</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806334</v>
+        <v>314.0869406806338</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279115</v>
+        <v>335.5756509279119</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889675</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.1666623924362</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091264</v>
+        <v>153.5815033091267</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287109</v>
+        <v>134.9501552287112</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570677</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2602645200157</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695268</v>
+        <v>152.3604904695271</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248193</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419404</v>
+        <v>176.1037075419408</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866677</v>
+        <v>205.8836314866681</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161114</v>
+        <v>272.5465204161118</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>238.4723255343269</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470895</v>
+        <v>272.8576805470899</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>176.3989541377274</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553865</v>
+        <v>322.0933872553869</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629138</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125889</v>
+        <v>294.0425872125892</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2899156641677</v>
+        <v>321.2899156641681</v>
       </c>
       <c r="F17" t="n">
-        <v>307.4242828993628</v>
+        <v>346.2355913336177</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453594</v>
+        <v>350.2812712453597</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792264</v>
+        <v>233.9673099792268</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.5473073800818</v>
+        <v>48.54730738008215</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315261</v>
+        <v>143.2775157315265</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508079</v>
+        <v>190.3547175508083</v>
       </c>
       <c r="V17" t="n">
-        <v>267.1118040620408</v>
+        <v>267.1118040620412</v>
       </c>
       <c r="W17" t="n">
-        <v>288.600514309319</v>
+        <v>288.6005143093193</v>
       </c>
       <c r="X17" t="n">
-        <v>309.090646270375</v>
+        <v>309.0906462703753</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479595</v>
+        <v>286.7861758137149</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738433</v>
+        <v>119.1915257738436</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905338</v>
+        <v>106.6063666905341</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011833</v>
+        <v>87.97501861011867</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847514</v>
+        <v>85.79350823847548</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483722</v>
+        <v>84.78059361483756</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509342</v>
+        <v>105.3853538509345</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622675</v>
+        <v>84.11456050622709</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174407</v>
+        <v>35.71196600174442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.2916982619533</v>
+        <v>28.29169826195366</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1285709233479</v>
+        <v>129.1285709233482</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680752</v>
+        <v>158.9084948680755</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975188</v>
+        <v>225.5713837975192</v>
       </c>
       <c r="V19" t="n">
-        <v>191.497188915734</v>
+        <v>191.4971889157343</v>
       </c>
       <c r="W19" t="n">
-        <v>225.882543928497</v>
+        <v>225.8825439284973</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809431</v>
+        <v>165.0692009809435</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440011</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553865</v>
+        <v>322.0933872553869</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629138</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125889</v>
+        <v>294.0425872125892</v>
       </c>
       <c r="E20" t="n">
-        <v>282.478607229914</v>
+        <v>321.2899156641681</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336174</v>
+        <v>346.2355913336177</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453594</v>
+        <v>350.2812712453597</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792264</v>
+        <v>233.9673099792268</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008178</v>
+        <v>48.54730738008215</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315261</v>
+        <v>143.2775157315265</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508079</v>
+        <v>190.3547175508083</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620408</v>
+        <v>228.3004956277962</v>
       </c>
       <c r="W20" t="n">
-        <v>288.600514309319</v>
+        <v>288.6005143093193</v>
       </c>
       <c r="X20" t="n">
-        <v>309.090646270375</v>
+        <v>309.0906462703753</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479595</v>
+        <v>325.5974842479599</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738433</v>
+        <v>119.1915257738436</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905338</v>
+        <v>106.6063666905341</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011833</v>
+        <v>87.97501861011867</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847514</v>
+        <v>85.79350823847548</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483722</v>
+        <v>84.78059361483756</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509342</v>
+        <v>105.3853538509345</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622675</v>
+        <v>84.11456050622709</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174407</v>
+        <v>35.71196600174442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.2916982619533</v>
+        <v>28.29169826195366</v>
       </c>
       <c r="S22" t="n">
-        <v>129.1285709233479</v>
+        <v>129.1285709233482</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680752</v>
+        <v>158.9084948680755</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975188</v>
+        <v>225.5713837975192</v>
       </c>
       <c r="V22" t="n">
-        <v>191.497188915734</v>
+        <v>191.4971889157343</v>
       </c>
       <c r="W22" t="n">
-        <v>225.882543928497</v>
+        <v>225.8825439284973</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809431</v>
+        <v>165.0692009809435</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440011</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553865</v>
+        <v>322.0933872553869</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629138</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125889</v>
+        <v>294.0425872125892</v>
       </c>
       <c r="E23" t="n">
-        <v>321.2899156641677</v>
+        <v>321.2899156641681</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336174</v>
+        <v>346.2355913336177</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453594</v>
+        <v>350.2812712453597</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792264</v>
+        <v>233.9673099792268</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.5473073800818</v>
+        <v>48.54730738008216</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315261</v>
+        <v>143.2775157315265</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508079</v>
+        <v>190.3547175508083</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620408</v>
+        <v>267.1118040620412</v>
       </c>
       <c r="W23" t="n">
-        <v>288.600514309319</v>
+        <v>288.6005143093193</v>
       </c>
       <c r="X23" t="n">
-        <v>309.090646270375</v>
+        <v>309.0906462703753</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479595</v>
+        <v>325.5974842479599</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738433</v>
+        <v>119.1915257738436</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905338</v>
+        <v>106.6063666905341</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011833</v>
+        <v>87.97501861011867</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847514</v>
+        <v>85.79350823847548</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483722</v>
+        <v>84.78059361483756</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509342</v>
+        <v>105.3853538509345</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622675</v>
+        <v>84.11456050622709</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174407</v>
+        <v>35.71196600174442</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.2916982619533</v>
+        <v>28.29169826195366</v>
       </c>
       <c r="S25" t="n">
-        <v>129.1285709233479</v>
+        <v>129.1285709233482</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680752</v>
+        <v>158.9084948680755</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975188</v>
+        <v>225.5713837975192</v>
       </c>
       <c r="V25" t="n">
-        <v>191.497188915734</v>
+        <v>191.4971889157343</v>
       </c>
       <c r="W25" t="n">
-        <v>225.882543928497</v>
+        <v>225.8825439284973</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809431</v>
+        <v>165.0692009809435</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.9441989440008</v>
+        <v>157.9441989440011</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,22 +2713,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124554</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800364</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1819.081333245797</v>
+        <v>1936.922085880389</v>
       </c>
       <c r="C11" t="n">
-        <v>1463.922167607912</v>
+        <v>1581.762920242504</v>
       </c>
       <c r="D11" t="n">
-        <v>1119.459820303688</v>
+        <v>1237.30057293828</v>
       </c>
       <c r="E11" t="n">
-        <v>747.4749190079704</v>
+        <v>865.3156716425619</v>
       </c>
       <c r="F11" t="n">
-        <v>350.2923655208895</v>
+        <v>468.1331181554806</v>
       </c>
       <c r="G11" t="n">
-        <v>350.2923655208895</v>
+        <v>66.8640193030035</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3085.878696185534</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2927.87620963923</v>
+        <v>3008.346285568126</v>
       </c>
       <c r="W11" t="n">
-        <v>2927.87620963923</v>
+        <v>2669.380981600538</v>
       </c>
       <c r="X11" t="n">
-        <v>2568.213802680677</v>
+        <v>2309.718574641985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2191.877822007392</v>
+        <v>2309.718574641985</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>475.8522836499228</v>
+        <v>475.8522836499172</v>
       </c>
       <c r="C13" t="n">
-        <v>320.7194520245428</v>
+        <v>475.8522836499172</v>
       </c>
       <c r="D13" t="n">
-        <v>320.7194520245428</v>
+        <v>339.5389955401079</v>
       </c>
       <c r="E13" t="n">
-        <v>320.7194520245428</v>
+        <v>339.5389955401079</v>
       </c>
       <c r="F13" t="n">
-        <v>320.7194520245428</v>
+        <v>282.4482777909275</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9259519117989</v>
+        <v>282.4482777909275</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>150.0344423113117</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907255</v>
+        <v>125.163413490725</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512084</v>
+        <v>342.6792610512075</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113109</v>
+        <v>672.7677241113097</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322465</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639936</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.248739171955</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217223</v>
+        <v>1944.384904217221</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981344</v>
+        <v>2035.523864981341</v>
       </c>
       <c r="R13" t="n">
-        <v>2035.523864981344</v>
+        <v>2035.523864981341</v>
       </c>
       <c r="S13" t="n">
-        <v>1857.641332110697</v>
+        <v>1857.641332110694</v>
       </c>
       <c r="T13" t="n">
-        <v>1649.67806798275</v>
+        <v>1649.678067982746</v>
       </c>
       <c r="U13" t="n">
-        <v>1374.37855241092</v>
+        <v>1374.378552410916</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.49741550756</v>
+        <v>1133.497415507556</v>
       </c>
       <c r="W13" t="n">
-        <v>857.8835967731262</v>
+        <v>857.8835967731216</v>
       </c>
       <c r="X13" t="n">
-        <v>643.6973971776358</v>
+        <v>643.6973971776306</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.6973971776358</v>
+        <v>643.6973971776306</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1600.707643286376</v>
+        <v>1876.559078260563</v>
       </c>
       <c r="C14" t="n">
-        <v>1245.548477648492</v>
+        <v>1521.399912622677</v>
       </c>
       <c r="D14" t="n">
-        <v>901.086130344268</v>
+        <v>1176.937565318453</v>
       </c>
       <c r="E14" t="n">
-        <v>529.1012290485505</v>
+        <v>1176.937565318453</v>
       </c>
       <c r="F14" t="n">
-        <v>131.9186755614695</v>
+        <v>779.755011831372</v>
       </c>
       <c r="G14" t="n">
-        <v>131.9186755614695</v>
+        <v>378.4859129788948</v>
       </c>
       <c r="H14" t="n">
-        <v>94.70566389018794</v>
+        <v>94.70566389018833</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438793</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3229.118504438793</v>
+        <v>3133.431425295919</v>
       </c>
       <c r="U14" t="n">
-        <v>2989.391379015156</v>
+        <v>2905.58040703079</v>
       </c>
       <c r="V14" t="n">
-        <v>2672.131842974112</v>
+        <v>2588.320870989746</v>
       </c>
       <c r="W14" t="n">
-        <v>2333.166539006525</v>
+        <v>2249.355567022158</v>
       </c>
       <c r="X14" t="n">
-        <v>1973.504132047972</v>
+        <v>2249.355567022158</v>
       </c>
       <c r="Y14" t="n">
-        <v>1973.504132047972</v>
+        <v>2249.355567022158</v>
       </c>
     </row>
     <row r="15">
@@ -5346,28 +5346,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>891.7755058354829</v>
+        <v>511.8577214901279</v>
       </c>
       <c r="C16" t="n">
-        <v>736.6426742101029</v>
+        <v>356.7248898647474</v>
       </c>
       <c r="D16" t="n">
-        <v>600.329386100294</v>
+        <v>220.4116017549381</v>
       </c>
       <c r="E16" t="n">
-        <v>466.2196438204277</v>
+        <v>220.4116017549381</v>
       </c>
       <c r="F16" t="n">
-        <v>352.8254372345531</v>
+        <v>220.4116017549381</v>
       </c>
       <c r="G16" t="n">
-        <v>198.9259519117989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907254</v>
+        <v>125.1634134907249</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512083</v>
+        <v>342.6792610512073</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113108</v>
+        <v>672.7677241113097</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322465</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639936</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.248739171955</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217223</v>
+        <v>1944.38490421722</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981344</v>
+        <v>2035.523864981341</v>
       </c>
       <c r="R16" t="n">
-        <v>2035.523864981344</v>
+        <v>2035.523864981341</v>
       </c>
       <c r="S16" t="n">
-        <v>1857.641332110697</v>
+        <v>1857.641332110694</v>
       </c>
       <c r="T16" t="n">
-        <v>1649.67806798275</v>
+        <v>1649.678067982746</v>
       </c>
       <c r="U16" t="n">
-        <v>1374.37855241092</v>
+        <v>1374.378552410916</v>
       </c>
       <c r="V16" t="n">
-        <v>1374.37855241092</v>
+        <v>1133.497415507556</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.764733676486</v>
+        <v>857.8835967731216</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.764733676486</v>
+        <v>679.7028350178413</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.7755058354829</v>
+        <v>679.7028350178413</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1906.340210162615</v>
+        <v>1945.543552015399</v>
       </c>
       <c r="C17" t="n">
-        <v>1598.630677472803</v>
+        <v>1637.834019325587</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.617963116653</v>
+        <v>1340.821304969437</v>
       </c>
       <c r="E17" t="n">
-        <v>977.0826947690089</v>
+        <v>1016.286036621792</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827834</v>
+        <v>666.5531160827843</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783799</v>
+        <v>312.7336501783806</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967726</v>
+        <v>265.2821649967728</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1015386866191</v>
+        <v>920.0054971320723</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.135751935028</v>
+        <v>1371.039710380481</v>
       </c>
       <c r="M17" t="n">
-        <v>1684.682642515557</v>
+        <v>1904.571615052405</v>
       </c>
       <c r="N17" t="n">
-        <v>2231.461459574339</v>
+        <v>2451.350432111187</v>
       </c>
       <c r="O17" t="n">
-        <v>2734.433930453676</v>
+        <v>2954.322902990524</v>
       </c>
       <c r="P17" t="n">
-        <v>3447.789017900622</v>
+        <v>3512.848273574889</v>
       </c>
       <c r="Q17" t="n">
-        <v>3696.075379656304</v>
+        <v>3761.134635330571</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.15170188736</v>
+        <v>3820.151701887374</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665055</v>
+        <v>3771.114017665068</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.389254299877</v>
+        <v>3626.38925429989</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824313</v>
+        <v>3434.111761824327</v>
       </c>
       <c r="V17" t="n">
-        <v>3164.301858731343</v>
+        <v>3164.301858731355</v>
       </c>
       <c r="W17" t="n">
-        <v>2872.786187711828</v>
+        <v>2872.786187711841</v>
       </c>
       <c r="X17" t="n">
-        <v>2560.573413701349</v>
+        <v>2560.573413701361</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976137</v>
+        <v>2270.890407828922</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866723</v>
+        <v>951.4347720866728</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055453</v>
+        <v>776.9817428055458</v>
       </c>
       <c r="D18" t="n">
-        <v>628.047333144294</v>
+        <v>628.0473331442945</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388386</v>
+        <v>468.8098781388389</v>
       </c>
       <c r="F18" t="n">
-        <v>322.2753201657236</v>
+        <v>322.2753201657239</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983417</v>
+        <v>185.912219998342</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620922</v>
+        <v>95.41032563620954</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283645</v>
+        <v>170.0803035283648</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087119</v>
       </c>
       <c r="L18" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213771</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5625,7 +5625,7 @@
         <v>2252.719219902756</v>
       </c>
       <c r="U18" t="n">
-        <v>2024.651373037171</v>
+        <v>2024.651373037172</v>
       </c>
       <c r="V18" t="n">
         <v>1789.499264805429</v>
@@ -5634,10 +5634,10 @@
         <v>1535.261908077227</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.410407871694</v>
+        <v>1327.410407871695</v>
       </c>
       <c r="Y18" t="n">
-        <v>1119.65010910674</v>
+        <v>1119.650109106741</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.733708293171</v>
+        <v>672.7337082931738</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158641</v>
+        <v>565.0505096158665</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541284</v>
+        <v>476.1868544541305</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223353</v>
+        <v>389.526745122337</v>
       </c>
       <c r="F19" t="n">
-        <v>303.889781875025</v>
+        <v>303.8897818750264</v>
       </c>
       <c r="G19" t="n">
-        <v>197.439929500344</v>
+        <v>197.439929500345</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688018</v>
+        <v>112.4757269688024</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J19" t="n">
-        <v>181.5597163486958</v>
+        <v>152.6470279354887</v>
       </c>
       <c r="K19" t="n">
-        <v>385.5468992975722</v>
+        <v>416.6682607483778</v>
       </c>
       <c r="L19" t="n">
-        <v>762.1407476100815</v>
+        <v>733.2280591968739</v>
       </c>
       <c r="M19" t="n">
-        <v>1137.419154660429</v>
+        <v>1077.385104796423</v>
       </c>
       <c r="N19" t="n">
-        <v>1478.827531366294</v>
+        <v>1478.8275313663</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.157130286707</v>
+        <v>1778.157130286714</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.764630720367</v>
+        <v>2010.764630720373</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872882</v>
+        <v>2088.374926872887</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881009</v>
+        <v>2059.797453881015</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958436</v>
+        <v>1929.364553958441</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778562</v>
+        <v>1768.850922778567</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154805</v>
+        <v>1541.00104015481</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199519</v>
+        <v>1347.569536199523</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413158</v>
+        <v>1119.405350413162</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657407</v>
+        <v>952.6687837657441</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728107</v>
+        <v>793.1291888728138</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1906.340210162615</v>
+        <v>1945.543552015399</v>
       </c>
       <c r="C20" t="n">
-        <v>1598.630677472804</v>
+        <v>1637.834019325587</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.617963116653</v>
+        <v>1340.821304969436</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621791</v>
+        <v>1016.286036621792</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827833</v>
+        <v>666.5531160827843</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783799</v>
+        <v>312.7336501783806</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2821649967726</v>
+        <v>265.2821649967728</v>
       </c>
       <c r="K20" t="n">
-        <v>599.1015386866191</v>
+        <v>599.1015386866193</v>
       </c>
       <c r="L20" t="n">
         <v>1050.135751935028</v>
@@ -5768,34 +5768,34 @@
         <v>2633.418944545072</v>
       </c>
       <c r="P20" t="n">
-        <v>3302.656432821569</v>
+        <v>3302.656432821583</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330557</v>
+        <v>3761.134635330571</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.15170188736</v>
+        <v>3820.151701887374</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.114017665055</v>
+        <v>3771.114017665068</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299877</v>
+        <v>3626.38925429989</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824313</v>
+        <v>3434.111761824326</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731343</v>
+        <v>3203.505200584128</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711828</v>
+        <v>2911.989529564614</v>
       </c>
       <c r="X20" t="n">
-        <v>2560.573413701349</v>
+        <v>2599.776755554134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2231.687065976137</v>
+        <v>2270.890407828922</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866726</v>
+        <v>951.4347720866728</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055457</v>
+        <v>776.9817428055458</v>
       </c>
       <c r="D21" t="n">
         <v>628.0473331442945</v>
@@ -5817,25 +5817,25 @@
         <v>468.8098781388389</v>
       </c>
       <c r="F21" t="n">
-        <v>322.275320165724</v>
+        <v>322.2753201657239</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983427</v>
+        <v>185.912219998342</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620961</v>
+        <v>95.41032563620954</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J21" t="n">
         <v>170.0803035283648</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087122</v>
+        <v>408.3445025087119</v>
       </c>
       <c r="L21" t="n">
-        <v>775.0426628213775</v>
+        <v>775.0426628213771</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
@@ -5844,19 +5844,19 @@
         <v>1695.842031598148</v>
       </c>
       <c r="O21" t="n">
-        <v>2106.803311016203</v>
+        <v>2106.803311016202</v>
       </c>
       <c r="P21" t="n">
-        <v>2417.302902492306</v>
+        <v>2417.302902492305</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.944460138905</v>
       </c>
       <c r="R21" t="n">
-        <v>2574.800106731421</v>
+        <v>2574.80010673142</v>
       </c>
       <c r="S21" t="n">
-        <v>2445.362220224901</v>
+        <v>2445.3622202249</v>
       </c>
       <c r="T21" t="n">
         <v>2252.719219902756</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.733708293171</v>
+        <v>672.7337082931738</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158641</v>
+        <v>565.0505096158665</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541284</v>
+        <v>476.1868544541305</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223353</v>
+        <v>389.526745122337</v>
       </c>
       <c r="F22" t="n">
-        <v>303.889781875025</v>
+        <v>303.8897818750264</v>
       </c>
       <c r="G22" t="n">
-        <v>197.439929500344</v>
+        <v>197.439929500345</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688018</v>
+        <v>112.4757269688024</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774719</v>
+        <v>76.40303403774747</v>
       </c>
       <c r="J22" t="n">
-        <v>121.5256664846827</v>
+        <v>121.525666484683</v>
       </c>
       <c r="K22" t="n">
-        <v>325.5128494335592</v>
+        <v>325.5128494335593</v>
       </c>
       <c r="L22" t="n">
-        <v>642.0726478820552</v>
+        <v>642.0726478820554</v>
       </c>
       <c r="M22" t="n">
-        <v>986.2296934816043</v>
+        <v>1017.35105493241</v>
       </c>
       <c r="N22" t="n">
-        <v>1387.672120051482</v>
+        <v>1418.793481502288</v>
       </c>
       <c r="O22" t="n">
-        <v>1687.001718971896</v>
+        <v>1778.157130286714</v>
       </c>
       <c r="P22" t="n">
-        <v>1979.643269269568</v>
+        <v>2010.764630720373</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872882</v>
+        <v>2088.374926872887</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881009</v>
+        <v>2059.797453881015</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958436</v>
+        <v>1929.364553958441</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778562</v>
+        <v>1768.850922778567</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154805</v>
+        <v>1541.00104015481</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199519</v>
+        <v>1347.569536199523</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413158</v>
+        <v>1119.405350413162</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657407</v>
+        <v>952.6687837657441</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728107</v>
+        <v>793.1291888728138</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216474</v>
+        <v>1946.343620216476</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526662</v>
+        <v>1638.634087526664</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170512</v>
+        <v>1341.621373170514</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822868</v>
+        <v>1017.086104822869</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838606</v>
+        <v>667.3531842838615</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794572</v>
+        <v>313.5337183794576</v>
       </c>
       <c r="H23" t="n">
-        <v>77.2031022388244</v>
+        <v>77.20310223882448</v>
       </c>
       <c r="I23" t="n">
-        <v>77.2031022388244</v>
+        <v>77.20310223882448</v>
       </c>
       <c r="J23" t="n">
-        <v>266.0822331978499</v>
+        <v>433.4878822182029</v>
       </c>
       <c r="K23" t="n">
-        <v>599.9016068876963</v>
+        <v>767.3072559080492</v>
       </c>
       <c r="L23" t="n">
-        <v>1050.935820136105</v>
+        <v>1218.341469156458</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.46772480803</v>
+        <v>1751.873373828382</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.246541866812</v>
+        <v>2298.652190887165</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.219012746149</v>
+        <v>2801.624661766502</v>
       </c>
       <c r="P23" t="n">
-        <v>3347.574100193095</v>
+        <v>3277.600587201181</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710165</v>
+        <v>3736.078789710169</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.15511194122</v>
+        <v>3860.155111941224</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718914</v>
+        <v>3811.117427718919</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353737</v>
+        <v>3666.392664353741</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878173</v>
+        <v>3474.115171878177</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785202</v>
+        <v>3204.305268785205</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765688</v>
+        <v>2912.789597765691</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755207</v>
+        <v>2600.576823755211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029996</v>
+        <v>2271.690476029999</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877495</v>
+        <v>952.2348402877494</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066225</v>
+        <v>777.7818110066224</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453713</v>
+        <v>628.8474013453712</v>
       </c>
       <c r="E24" t="n">
-        <v>469.6099463399158</v>
+        <v>469.6099463399157</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668008</v>
+        <v>323.0753883668007</v>
       </c>
       <c r="G24" t="n">
-        <v>186.7122881994189</v>
+        <v>186.7122881994188</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728643</v>
+        <v>96.21039383728628</v>
       </c>
       <c r="I24" t="n">
-        <v>77.2031022388244</v>
+        <v>77.20310223882448</v>
       </c>
       <c r="J24" t="n">
-        <v>170.8803717294416</v>
+        <v>170.8803717294418</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097888</v>
+        <v>409.1445707097889</v>
       </c>
       <c r="L24" t="n">
         <v>775.8427310224541</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942483</v>
+        <v>673.5337764942508</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169414</v>
+        <v>565.8505778169435</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552057</v>
+        <v>476.9869226552075</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234126</v>
+        <v>390.3268133234141</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761022</v>
+        <v>304.6898500761034</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014212</v>
+        <v>198.239997701422</v>
       </c>
       <c r="H25" t="n">
-        <v>113.275795169879</v>
+        <v>113.2757951698795</v>
       </c>
       <c r="I25" t="n">
-        <v>77.2031022388244</v>
+        <v>77.20310223882448</v>
       </c>
       <c r="J25" t="n">
-        <v>182.3597845497731</v>
+        <v>182.3597845497728</v>
       </c>
       <c r="K25" t="n">
-        <v>417.468328949448</v>
+        <v>417.4683289494549</v>
       </c>
       <c r="L25" t="n">
-        <v>794.0621772619572</v>
+        <v>734.028127397951</v>
       </c>
       <c r="M25" t="n">
-        <v>1138.219222861506</v>
+        <v>1138.219222861513</v>
       </c>
       <c r="N25" t="n">
-        <v>1479.627599567371</v>
+        <v>1479.627599567377</v>
       </c>
       <c r="O25" t="n">
-        <v>1778.957198487784</v>
+        <v>1778.957198487791</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921444</v>
+        <v>2011.56469892145</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.174995073959</v>
+        <v>2089.174995073965</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082086</v>
+        <v>2060.597522082092</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159513</v>
+        <v>1930.164622159518</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.650990979639</v>
+        <v>1769.650990979644</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355883</v>
+        <v>1541.801108355887</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400596</v>
+        <v>1348.3696044006</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614235</v>
+        <v>1120.205418614239</v>
       </c>
       <c r="X25" t="n">
-        <v>953.468851966818</v>
+        <v>953.4688519668211</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738879</v>
+        <v>793.9292570738908</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643395</v>
@@ -6379,55 +6379,55 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6497,16 +6497,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.101050269801</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,19 +6619,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973148</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982178</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481264</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519674</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.684944709349</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768131</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,10 +6731,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,25 +6777,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6841,13 +6841,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,10 +6856,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6874,16 +6874,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6935,31 +6935,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7248,31 +7248,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
         <v>2579.543989590362</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913841</v>
@@ -7321,22 +7321,22 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7412,22 +7412,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871313</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
@@ -7442,10 +7442,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P44" t="n">
         <v>3474.791320094414</v>
@@ -7679,10 +7679,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H45" t="n">
         <v>100.1542084951512</v>
@@ -7725,10 +7725,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L45" t="n">
         <v>779.786545680319</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>102.0353393016206</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>165.4050547749367</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>277.2354766861812</v>
+        <v>277.2354766861957</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>82.02177684596126</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6346745064521</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>274.8351763665439</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>124.5185911550047</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>274.8351763665439</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>306.6874953089257</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>306.6874953089261</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.736966642836</v>
+        <v>165.3902622431554</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639519</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.5940627557075</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342448</v>
+        <v>27.91161198342486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867436</v>
+        <v>95.52244399867472</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501187</v>
+        <v>190.252652350119</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>237.3298541694008</v>
       </c>
       <c r="V11" t="n">
-        <v>157.6644789997915</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>335.5756509279115</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.5726208665525</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.5815033091267</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9501552287109</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570677</v>
+        <v>132.768644857068</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334298</v>
+        <v>75.23591966174156</v>
       </c>
       <c r="G13" t="n">
-        <v>31.7849253579104</v>
+        <v>152.3604904695271</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033662</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054586</v>
+        <v>75.26683488054621</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625933</v>
+        <v>204.9193355625937</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>368.2650522827607</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639519</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>244.1015650432502</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.52244399867473</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501187</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>11.75734608692276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889679</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665521</v>
+        <v>372.5726208665525</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924358</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.768644857068</v>
       </c>
       <c r="F16" t="n">
-        <v>19.49546571341403</v>
+        <v>131.7557302334301</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0896971248197</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033662</v>
+        <v>82.68710262033699</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054586</v>
+        <v>75.26683488054621</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343265</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995357</v>
+        <v>35.6453834618086</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625937</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.81130843425456</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>38.81130843424499</v>
       </c>
     </row>
     <row r="18">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>38.81130843425377</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>38.81130843424499</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1208209.056614164</v>
+        <v>1208209.056614166</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1208209.056614164</v>
+        <v>1208209.056614165</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="C2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="D2" t="n">
         <v>245782.9016151115</v>
       </c>
       <c r="E2" t="n">
-        <v>211838.8793949145</v>
+        <v>211838.8793949143</v>
       </c>
       <c r="F2" t="n">
-        <v>211838.8793949145</v>
+        <v>211838.8793949143</v>
       </c>
       <c r="G2" t="n">
-        <v>245385.7169138749</v>
+        <v>245385.7169138752</v>
       </c>
       <c r="H2" t="n">
-        <v>245385.7169138749</v>
+        <v>245385.7169138752</v>
       </c>
       <c r="I2" t="n">
         <v>246312.530959285</v>
@@ -26338,13 +26338,13 @@
         <v>246312.5309592848</v>
       </c>
       <c r="K2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="L2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592846</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592848</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592847</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592849</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1134700.308569465</v>
+        <v>1134700.308569464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388589</v>
+        <v>71467.01119388689</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701233131</v>
+        <v>2659.436701232496</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927965</v>
+        <v>12898.44302927929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870654</v>
+        <v>29753.24015870738</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.88759302233</v>
+        <v>22969.88759302199</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.88759302233</v>
+        <v>22969.88759302197</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803621</v>
+        <v>78706.21105803647</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803622</v>
+        <v>78706.21105803642</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.17669746628</v>
+        <v>79814.17669746622</v>
       </c>
       <c r="J4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="K4" t="n">
+        <v>76652.56781120106</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76652.56781120108</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76652.56781120106</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76652.56781120111</v>
+      </c>
+      <c r="O4" t="n">
         <v>76652.56781120104</v>
       </c>
-      <c r="L4" t="n">
-        <v>76652.56781120099</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>76652.56781120098</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76652.56781120101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76652.56781120101</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76652.56781120101</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263891</v>
+        <v>75455.17016263885</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263891</v>
+        <v>75455.17016263885</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325583</v>
+        <v>86921.420303256</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325583</v>
+        <v>86921.420303256</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.4721360745</v>
+        <v>87529.47213607453</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207992.4672744198</v>
+        <v>-207996.8808522879</v>
       </c>
       <c r="C6" t="n">
-        <v>-207992.4672744197</v>
+        <v>-207996.8808522879</v>
       </c>
       <c r="D6" t="n">
-        <v>-207992.4672744198</v>
+        <v>-207996.8808522879</v>
       </c>
       <c r="E6" t="n">
-        <v>-1021286.486930211</v>
+        <v>-1021573.767359914</v>
       </c>
       <c r="F6" t="n">
-        <v>113413.8216392533</v>
+        <v>113126.5412095504</v>
       </c>
       <c r="G6" t="n">
-        <v>8291.074358696991</v>
+        <v>8283.350908317441</v>
       </c>
       <c r="H6" t="n">
-        <v>79758.08555258282</v>
+        <v>79750.36210220438</v>
       </c>
       <c r="I6" t="n">
-        <v>76309.44542451104</v>
+        <v>76309.44542451177</v>
       </c>
       <c r="J6" t="n">
-        <v>67383.57844399806</v>
+        <v>67383.57844399835</v>
       </c>
       <c r="K6" t="n">
+        <v>80282.02147327767</v>
+      </c>
+      <c r="L6" t="n">
+        <v>42701.91217840358</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-126906.5468187954</v>
+      </c>
+      <c r="N6" t="n">
         <v>80282.02147327759</v>
       </c>
-      <c r="L6" t="n">
-        <v>42701.91217840364</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-126906.5468187955</v>
-      </c>
-      <c r="N6" t="n">
-        <v>80282.02147327765</v>
-      </c>
       <c r="O6" t="n">
-        <v>50528.78131457107</v>
+        <v>50528.78131457018</v>
       </c>
       <c r="P6" t="n">
-        <v>80282.02147327762</v>
+        <v>80282.0214732778</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718399</v>
+        <v>955.0379254718434</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718399</v>
+        <v>955.0379254718434</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853049</v>
+        <v>965.0387779853061</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695472</v>
+        <v>123.6364700695508</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346502</v>
+        <v>10.00085251346263</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330972</v>
+        <v>49.29768322330835</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695469</v>
+        <v>123.6364700695507</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695472</v>
+        <v>123.6364700695508</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950147</v>
+        <v>13.66531778950112</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="J19" t="n">
-        <v>60.64045440809404</v>
+        <v>31.43571863717749</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="L19" t="n">
-        <v>60.64045440809404</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>31.43571863717051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>31.43571863717773</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="P22" t="n">
-        <v>60.64045440809404</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.43571863717057</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="J25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="K25" t="n">
-        <v>31.43571863717028</v>
+        <v>31.43571863717762</v>
       </c>
       <c r="L25" t="n">
-        <v>60.64045440809404</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809404</v>
+        <v>60.6404544080937</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859398</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="44">
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,7 +32783,7 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026437</v>
@@ -32792,31 +32792,31 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.2437344025677</v>
+        <v>59.24373440256732</v>
       </c>
       <c r="K13" t="n">
-        <v>219.712977333821</v>
+        <v>219.7129773338206</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596996</v>
+        <v>333.4226899596992</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829853</v>
+        <v>361.2986971829849</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570416</v>
+        <v>358.5222639570412</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121413</v>
+        <v>316.0184480121408</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346119</v>
+        <v>248.6223889346115</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739513</v>
+        <v>92.05955632739474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.2437344025677</v>
+        <v>59.24373440256732</v>
       </c>
       <c r="K16" t="n">
-        <v>219.712977333821</v>
+        <v>219.7129773338206</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596996</v>
+        <v>333.4226899596992</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829853</v>
+        <v>361.2986971829849</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570416</v>
+        <v>358.5222639570412</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121413</v>
+        <v>316.0184480121408</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346119</v>
+        <v>248.6223889346115</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739513</v>
+        <v>92.05955632739474</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>640.9564551318474</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>564.1670409943083</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.2188710211603</v>
+        <v>77.01413525024368</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>266.6881139524132</v>
       </c>
       <c r="L19" t="n">
-        <v>380.3978265782922</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>379.0690980306543</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756337</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>675.9974629055531</v>
+        <v>675.9974629055673</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>379.0690980306615</v>
       </c>
       <c r="N22" t="n">
-        <v>405.4974005756341</v>
+        <v>405.4974005756337</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>362.9935846307334</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5975255532045</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>109.8299571750642</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>480.7837630653329</v>
       </c>
       <c r="Q23" t="n">
-        <v>392.4289793101716</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597698</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.2188710211603</v>
+        <v>106.2188710211599</v>
       </c>
       <c r="K25" t="n">
-        <v>237.4833781814899</v>
+        <v>237.4833781814971</v>
       </c>
       <c r="L25" t="n">
-        <v>380.3978265782922</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2738338015774</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>461.7098777104063</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>673.5971625859155</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>663.4397069852315</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>673.5971625859155</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971447</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971451</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465555</v>
+        <v>416.1845670468748</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637044</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
